--- a/biology/Botanique/Palo_cortado/Palo_cortado.xlsx
+++ b/biology/Botanique/Palo_cortado/Palo_cortado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le palo cortado est un type rare de vin blanc de Xérès, en Andalousie, obtenu à partir du cépage palomino. Il s’agit d’un vin élevé sous voile pour obtenir un fino ou un amontillado et qui perd son voile. Il en résulte un vin intermédiaire entre un fino et un amontillado[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le palo cortado est un type rare de vin blanc de Xérès, en Andalousie, obtenu à partir du cépage palomino. Il s’agit d’un vin élevé sous voile pour obtenir un fino ou un amontillado et qui perd son voile. Il en résulte un vin intermédiaire entre un fino et un amontillado.
 </t>
         </is>
       </c>
